--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2264319.342840902</v>
+        <v>2323560.177143462</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>278692.0725916871</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5429408.627380685</v>
+        <v>5492709.792342811</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>325.5800738246913</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.484581935008</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>106.7004437127882</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>169.4996621905625</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>303.7069953522117</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.46142978139768</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1066,10 +1066,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>29.6861392282866</v>
       </c>
       <c r="U7" t="n">
-        <v>90.37884647003881</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>180.0949942202909</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>146.1224224236111</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>203.2613507217559</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.8407971234371</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1534,16 +1534,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117741</v>
       </c>
       <c r="F13" t="n">
-        <v>35.34780583513542</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>22.28534392847265</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>161.8384861377961</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>29.10461178738532</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,13 +1819,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394297</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>162.0469045419234</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>255.3659184736059</v>
+        <v>433.7610480884121</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>103.828474294603</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.990622819018423</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>54.66258501924912</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2318,7 +2318,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884046</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>136.0564930766997</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>31.24391673888152</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>161.6379250432762</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3044,7 +3044,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3424,16 +3424,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704973</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>202.12440681279</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3484,10 +3484,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>234.1486472602329</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3755,7 +3755,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>279.4382049694011</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>123.2901323038664</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3983,7 +3983,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4037,7 +4037,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>215.6111223864556</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307227</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225779</v>
+        <v>46.22530271039975</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1620.659365270951</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1291.790603831868</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4328,28 +4328,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4364,16 +4364,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449918</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.7506050139928</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="C4" t="n">
-        <v>686.1888934972177</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1567.987382813276</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.960978399567</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X4" t="n">
-        <v>1050.56922373298</v>
+        <v>433.7175721270257</v>
       </c>
       <c r="Y4" t="n">
-        <v>1050.56922373298</v>
+        <v>262.5057921365585</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.8743158913576</v>
+        <v>1783.484246000439</v>
       </c>
       <c r="C5" t="n">
-        <v>520.7722471151849</v>
+        <v>1345.341773183862</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9028663300335</v>
+        <v>909.4319883583064</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>475.6572435166016</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>451.8302179662134</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947728</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947728</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947728</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423952</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>557.7649106726495</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>557.7649106726495</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>557.7649106726495</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>557.7649106726495</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717431</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762212</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720807</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="W5" t="n">
-        <v>1033.105672808467</v>
+        <v>2520.804278925301</v>
       </c>
       <c r="X5" t="n">
-        <v>613.9632093877782</v>
+        <v>2214.029536145289</v>
       </c>
       <c r="Y5" t="n">
-        <v>577.1334823358613</v>
+        <v>1805.743412444942</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807701</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174124</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639656</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909193</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326481</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947728</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993489</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161472</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.0543847161472</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161472</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161472</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161472</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970895</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813124</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605332</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>781.5325614408401</v>
+        <v>989.5883728917331</v>
       </c>
       <c r="C7" t="n">
-        <v>608.9708499240651</v>
+        <v>817.0266613749581</v>
       </c>
       <c r="D7" t="n">
-        <v>608.9708499240651</v>
+        <v>651.1486685764808</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>481.3906648272181</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>304.6836107889743</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947728</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541672</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>266.2978593068896</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>684.5077410748506</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1143.991608255764</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1586.250411413408</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.91966063919</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609531</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2491.633330253372</v>
       </c>
       <c r="U7" t="n">
-        <v>1200.770850845719</v>
+        <v>2213.200329506477</v>
       </c>
       <c r="V7" t="n">
-        <v>1200.770850845719</v>
+        <v>1926.244821376908</v>
       </c>
       <c r="W7" t="n">
-        <v>1200.770850845719</v>
+        <v>1654.2184169632</v>
       </c>
       <c r="X7" t="n">
-        <v>1200.770850845719</v>
+        <v>1408.826662296612</v>
       </c>
       <c r="Y7" t="n">
-        <v>973.3511801598272</v>
+        <v>1181.40699161072</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1395.53913136414</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>1361.437062587967</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>932.8553883252357</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>750.9412527491843</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>323.0738231583921</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>1437.146076848872</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>1422.044017468586</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>1417.798297808644</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2464.746330752886</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>2186.313330005992</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1899.357821876422</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1627.331417462714</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055758</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928796</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245813</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179639</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590672</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169983</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469637</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.229814098727</v>
+        <v>927.0677766831682</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819522</v>
+        <v>754.5060651663931</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834749</v>
+        <v>588.6280723679158</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342122</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583914</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2674.992180466352</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2429.112734044807</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2150.679733297913</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1863.724225168343</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1591.697820754635</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1346.306066088047</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177142</v>
+        <v>1118.886395402155</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351989</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111516</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112633</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.85743042965</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363476</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774509</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.24256235382</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653473</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>914.5724765508968</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5724765508968</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524195</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.69591774924</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719582</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583914</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583914</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2013.948813008504</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1726.993304878934</v>
       </c>
       <c r="W16" t="n">
-        <v>1579.202520622363</v>
+        <v>1454.966900465226</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.810765955776</v>
+        <v>1209.575145798638</v>
       </c>
       <c r="Y16" t="n">
-        <v>1106.391095269884</v>
+        <v>982.1554751127464</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181365</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.528123727751</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423112</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447623</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068556</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252393</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125432</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442448</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376275</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787308</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366619</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666272</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493062</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051587</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480411</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1053.956632260528</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C19" t="n">
-        <v>881.3949207437527</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D19" t="n">
-        <v>715.5169279452753</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E19" t="n">
-        <v>545.7589241960126</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F19" t="n">
-        <v>369.0518701577687</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G19" t="n">
-        <v>203.4605951835964</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137113</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.163033586061</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2556.001589622167</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2277.568588875272</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1990.613080745703</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W19" t="n">
-        <v>1718.586676331994</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X19" t="n">
-        <v>1473.194921665407</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y19" t="n">
-        <v>1245.775250979515</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799022</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651781</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236973</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
         <v>1371.865819681875</v>
@@ -5996,43 +5996,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993926</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827322</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785917</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538973</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.39013972281</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595849</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912865</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846692</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257725</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837036</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136689</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620723</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987145</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452678</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722215</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883831</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.996492454567</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312371</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974494</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974494</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974494</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626147</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418354</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1090.187678435286</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>917.6259669185112</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>751.7479741200339</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>581.9899703707711</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>405.2829163325273</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>239.6916413583549</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.79963505003</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2313.79963505003</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2026.844126920461</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1754.817722506752</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1509.425967840165</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1282.006297154273</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731399</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856333</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883919</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>811.7546776883919</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>645.8766848899145</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>476.1186811406518</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>299.411627102408</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>133.8203521282357</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6649,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6923,10 +6923,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,37 +6935,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912873</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>832.0502353276421</v>
+        <v>1092.659051657341</v>
       </c>
       <c r="C37" t="n">
-        <v>832.0502353276421</v>
+        <v>920.0973401405661</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7096,7 +7096,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2334.095192689281</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2055.662191942386</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1768.706683812817</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1496.680279399108</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.288524732521</v>
+        <v>1511.89734106222</v>
       </c>
       <c r="Y37" t="n">
-        <v>1023.868854046629</v>
+        <v>1284.477670376328</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7199,25 +7199,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7309,13 +7309,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7333,10 +7333,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.183334455154</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.040861638577</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.131076813022</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.356331971317</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>784.4889023805249</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>383.0910710037888</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033836</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410828</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981135</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.02057581453</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773126</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526182</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526182</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.606199399221</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.383896716237</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.766946650064</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.911492061097</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.769028640408</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.482904940061</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218164</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584587</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223588</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015795</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.909505607455</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>778.3477940906799</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4698012922026</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429399</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>266.004743504696</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952135</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268253</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.56595409263</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.539549678922</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.147795012334</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1142.728124326442</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397513</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055757</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.731606928795</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4357.509304245812</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3994.892354179638</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.2320137580464</v>
+        <v>1181.319000882662</v>
       </c>
       <c r="C46" t="n">
-        <v>774.6703022412712</v>
+        <v>1008.757289365887</v>
       </c>
       <c r="D46" t="n">
-        <v>608.7923094427938</v>
+        <v>842.8792965674095</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935313</v>
+        <v>673.1212928181468</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552875</v>
+        <v>496.414238779903</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111513</v>
+        <v>330.8229638057306</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111513</v>
+        <v>190.9207894961052</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.15641754123</v>
+        <v>2650.810403918951</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.276971119685</v>
+        <v>2404.930957497406</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.843970372791</v>
+        <v>2404.930957497406</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.888462243221</v>
+        <v>2117.975449367837</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.862057829513</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.470303162925</v>
+        <v>1600.557290287541</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.050632477034</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611553</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684659</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368466</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741646</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684659</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,19 +8374,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987095</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,13 +8696,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807095</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504367</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,7 +9644,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352374</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365287841</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196806914</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>185.1957776566216</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>135.3636110865106</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>267.5985112554916</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>160.7958207444119</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>107.259235827648</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>178.395129614805</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.67467827192618</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>81.78272691405299</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.446659489829528</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>107.2592358276477</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>81.78272691405309</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>41.29624514453932</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>8.789189859688776</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.80064804181482</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627306</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>185.1957776566214</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627255</v>
+        <v>111.4236523045836</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>475261.0514994587</v>
+        <v>477374.7719033379</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>475261.0514994587</v>
+        <v>477755.3519109921</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>455228.1127446963</v>
+        <v>474439.2592998932</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>455228.1127446963</v>
+        <v>474439.2592998933</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>461651.8241482465</v>
+        <v>474439.2592998933</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>474439.2592998933</v>
+        <v>474439.2592998932</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>468015.5478963433</v>
+        <v>474439.2592998933</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>455228.1127446963</v>
+        <v>474439.2592998933</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469128.9049041074</v>
+      </c>
+      <c r="C2" t="n">
         <v>469128.9049041075</v>
       </c>
-      <c r="C2" t="n">
-        <v>469128.9049041076</v>
-      </c>
       <c r="D2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
-        <v>442333.4107252168</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
-        <v>442333.4107252168</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="G2" t="n">
-        <v>448575.165342512</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="I2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
         <v>461000.3861201833</v>
@@ -26347,13 +26347,13 @@
         <v>461000.3861201833</v>
       </c>
       <c r="N2" t="n">
+        <v>461000.3861201834</v>
+      </c>
+      <c r="O2" t="n">
         <v>461000.3861201832</v>
       </c>
-      <c r="O2" t="n">
-        <v>454758.6315028881</v>
-      </c>
       <c r="P2" t="n">
-        <v>442333.4107252168</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501692</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998204</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220373</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850765</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996319</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449907</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877313</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726621718</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651109</v>
+        <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.2398651109</v>
+        <v>130243.4307963238</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13668.38414064832</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="F4" t="n">
-        <v>13668.38414064832</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="G4" t="n">
-        <v>13861.25833407853</v>
+        <v>14245.20557049258</v>
       </c>
       <c r="H4" t="n">
+        <v>14245.2055704926</v>
+      </c>
+      <c r="I4" t="n">
         <v>14245.20557049264</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14245.20557049291</v>
       </c>
       <c r="J4" t="n">
         <v>14245.20557049264</v>
@@ -26445,19 +26445,19 @@
         <v>14245.20557049264</v>
       </c>
       <c r="L4" t="n">
+        <v>14245.20557049264</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14245.20557049258</v>
+      </c>
+      <c r="N4" t="n">
         <v>14245.20557049259</v>
       </c>
-      <c r="M4" t="n">
-        <v>14245.20557049264</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14245.20557049264</v>
-      </c>
       <c r="O4" t="n">
-        <v>14052.33137706244</v>
+        <v>14245.20557049258</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.38414064832</v>
+        <v>14245.20557049258</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800272</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024205</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579239</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319796</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92212.57624206433</v>
+        <v>92212.57624206418</v>
       </c>
       <c r="C6" t="n">
-        <v>234403.8769017743</v>
+        <v>200341.4924047641</v>
       </c>
       <c r="D6" t="n">
-        <v>234403.8769017743</v>
+        <v>261257.9315672325</v>
       </c>
       <c r="E6" t="n">
-        <v>120790.6622848837</v>
+        <v>186658.6083834658</v>
       </c>
       <c r="F6" t="n">
-        <v>355145.684306921</v>
+        <v>369013.7176045154</v>
       </c>
       <c r="G6" t="n">
-        <v>353461.3511653407</v>
+        <v>369013.7176045156</v>
       </c>
       <c r="H6" t="n">
-        <v>356634.1869639349</v>
+        <v>369013.7176045156</v>
       </c>
       <c r="I6" t="n">
-        <v>369036.9419438986</v>
+        <v>369013.7176045155</v>
       </c>
       <c r="J6" t="n">
-        <v>258022.4765989074</v>
+        <v>257999.2522595253</v>
       </c>
       <c r="K6" t="n">
-        <v>369036.9419438982</v>
+        <v>315967.8629657424</v>
       </c>
       <c r="L6" t="n">
-        <v>369036.9419438982</v>
+        <v>359621.4158778938</v>
       </c>
       <c r="M6" t="n">
-        <v>173435.7626608305</v>
+        <v>216813.5466665279</v>
       </c>
       <c r="N6" t="n">
-        <v>369036.941943898</v>
+        <v>369013.7176045156</v>
       </c>
       <c r="O6" t="n">
-        <v>364392.0640426277</v>
+        <v>369013.7176045154</v>
       </c>
       <c r="P6" t="n">
-        <v>355145.684306921</v>
+        <v>369013.7176045156</v>
       </c>
     </row>
   </sheetData>
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684659</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384743</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483616</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939104</v>
       </c>
       <c r="E4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319979</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760611</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201064</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483616</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939104</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483616</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939104</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319979</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760611</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>105.9706131526086</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>177.3855093354856</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>55.64581178847027</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>111.2440434342707</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.7418326819454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>213.7345127290427</v>
       </c>
       <c r="U7" t="n">
-        <v>185.2698242693869</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>249.3420031729969</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>212.8683581419007</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>40.15930123557337</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-2.934159228733233e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-4.033906286909852e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.216253151832116e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-4.805094253524971e-12</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-8.194972043404218e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30666,7 +30666,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-4.805094253524971e-12</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30873,7 +30873,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-8.459501298696932e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611553</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684659</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368466</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35027,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741646</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684659</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,22 +35091,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987095</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807095</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,10 +35811,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956001</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512943</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504367</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,13 +36291,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352374</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36762,7 +36762,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512943</v>
@@ -36996,13 +36996,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37701,19 +37701,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365287841</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37856,7 +37856,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196806914</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
